--- a/PR Team Daily Work Sheet 28th Feb- 4th March 2022 (1)/Proheat Hydronic Offsite SEO 28-Feb-2022/Proheat Hydronic Offsite SEO - v2 - onsite offsite report - 14th Feb (Repaired) (Recovered).xlsx
+++ b/PR Team Daily Work Sheet 28th Feb- 4th March 2022 (1)/Proheat Hydronic Offsite SEO 28-Feb-2022/Proheat Hydronic Offsite SEO - v2 - onsite offsite report - 14th Feb (Repaired) (Recovered).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15480" windowHeight="7755" tabRatio="866" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15480" windowHeight="7755" tabRatio="866" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Map Citation" sheetId="26" r:id="rId3"/>
     <sheet name="Image Shareing" sheetId="24" r:id="rId4"/>
     <sheet name="Social Bookmarking" sheetId="9" r:id="rId5"/>
-    <sheet name="Blog  Submission" sheetId="6" r:id="rId6"/>
-    <sheet name="Social Profile" sheetId="31" r:id="rId7"/>
+    <sheet name="Social Profile" sheetId="31" r:id="rId6"/>
+    <sheet name="Blog  Submission" sheetId="6" r:id="rId7"/>
     <sheet name="Classified Ads Submission" sheetId="8" r:id="rId8"/>
     <sheet name="Blog Comment" sheetId="18" state="hidden" r:id="rId9"/>
     <sheet name="Forum Creation" sheetId="19" state="hidden" r:id="rId10"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="539">
   <si>
     <t>CLICK BELOW</t>
   </si>
@@ -1579,6 +1579,78 @@
   <si>
     <t>https://telegra.ph/Boilers-03-03</t>
   </si>
+  <si>
+    <t>https://www.evernote.com</t>
+  </si>
+  <si>
+    <t>https://www.pearltrees.com/</t>
+  </si>
+  <si>
+    <t>https://www.pearltrees.com/proheathydronicheat/item433730919</t>
+  </si>
+  <si>
+    <t>https://500px.com/</t>
+  </si>
+  <si>
+    <t>https://pin.it/7plolmh</t>
+  </si>
+  <si>
+    <t>https://500px.com/photo/1045310042/Hydronic-Heating-Specialists-by-Proheat-Hydronic-Heating/</t>
+  </si>
+  <si>
+    <t>https://telegra.ph/Hydronic-Heating-Specialists-03-11</t>
+  </si>
+  <si>
+    <t>https://proheathydronicheating.tumblr.com/post/678392055791337472/hydronic-heating-installers-melbourne-proheat</t>
+  </si>
+  <si>
+    <t>hydronic heating system Melbourne</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s367/sh/b77704a2-50ba-1277-3ea7-d1b91089cdfb/2c648c88da4e769e3f9a83e88c4b9371</t>
+  </si>
+  <si>
+    <t>https://proheat00.livejournal.com/1257.html</t>
+  </si>
+  <si>
+    <t>https://proheathydronicheating.tumblr.com/post/678395556405673984/hydronic-heating-service-melbourne-proheat</t>
+  </si>
+  <si>
+    <t>https://edublogs.org/</t>
+  </si>
+  <si>
+    <t>https://proheathydronicheating.edublogs.org/2022/03/11/our-services/</t>
+  </si>
+  <si>
+    <t>https://www.about.me/</t>
+  </si>
+  <si>
+    <t>https://about.me/proheathydronic</t>
+  </si>
+  <si>
+    <t>https://www.last.fm/</t>
+  </si>
+  <si>
+    <t>https://www.last.fm/user/proheath</t>
+  </si>
+  <si>
+    <t>10/03/202</t>
+  </si>
+  <si>
+    <t>https://melbourne.infoisinfo-au.com/</t>
+  </si>
+  <si>
+    <t>https://www.flickr.com/photos/195137648@N06/?</t>
+  </si>
+  <si>
+    <t>https://knox.infoisinfo-au.com/card/proheat-hydronic-heating/1509261#images</t>
+  </si>
+  <si>
+    <t>https://www.australianplanet.com/</t>
+  </si>
+  <si>
+    <t>https://www.australianplanet.com/proheat-hydronic-heating-F110CC00613D84D</t>
+  </si>
 </sst>
 </file>
 
@@ -1590,7 +1662,7 @@
     <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="167" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1817,8 +1889,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242F33"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1897,8 +1986,14 @@
         <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2214,6 +2309,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2224,7 +2334,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2760,13 +2870,7 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2781,7 +2885,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2789,6 +2892,44 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2860,10 +3001,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2871,6 +3012,12 @@
     </xf>
     <xf numFmtId="17" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2901,12 +3048,6 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2914,74 +3055,20 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="95">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3090,6 +3177,88 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4474,19 +4643,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1495425" cy="342900"/>
+    <xdr:ext cx="2066925" cy="342900"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Shape 8">
+        <xdr:cNvPr id="2" name="Shape 12">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4494,8 +4663,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9886950" y="123825"/>
-          <a:ext cx="1495425" cy="342900"/>
+          <a:off x="9896475" y="495300"/>
+          <a:ext cx="2066925" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4560,19 +4729,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2066925" cy="342900"/>
+    <xdr:ext cx="1495425" cy="342900"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 12">
+        <xdr:cNvPr id="8" name="Shape 8">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4580,8 +4749,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9896475" y="495300"/>
-          <a:ext cx="2066925" cy="342900"/>
+          <a:off x="9886950" y="123825"/>
+          <a:ext cx="1495425" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5368,15 +5537,15 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="282" t="s">
+      <c r="G9" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="283"/>
-      <c r="I9" s="283"/>
-      <c r="J9" s="283"/>
-      <c r="K9" s="283"/>
-      <c r="L9" s="283"/>
-      <c r="M9" s="284"/>
+      <c r="H9" s="298"/>
+      <c r="I9" s="298"/>
+      <c r="J9" s="298"/>
+      <c r="K9" s="298"/>
+      <c r="L9" s="298"/>
+      <c r="M9" s="299"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -5398,13 +5567,13 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="285"/>
-      <c r="H10" s="286"/>
-      <c r="I10" s="286"/>
-      <c r="J10" s="286"/>
-      <c r="K10" s="286"/>
-      <c r="L10" s="286"/>
-      <c r="M10" s="287"/>
+      <c r="G10" s="300"/>
+      <c r="H10" s="301"/>
+      <c r="I10" s="301"/>
+      <c r="J10" s="301"/>
+      <c r="K10" s="301"/>
+      <c r="L10" s="301"/>
+      <c r="M10" s="302"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -5482,17 +5651,17 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="288" t="s">
+      <c r="G13" s="303" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="272"/>
-      <c r="I13" s="272"/>
-      <c r="J13" s="272"/>
-      <c r="K13" s="289" t="s">
+      <c r="H13" s="287"/>
+      <c r="I13" s="287"/>
+      <c r="J13" s="287"/>
+      <c r="K13" s="304" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="281"/>
-      <c r="M13" s="290"/>
+      <c r="L13" s="296"/>
+      <c r="M13" s="305"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -5514,17 +5683,17 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="291" t="s">
+      <c r="G14" s="306" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="272"/>
-      <c r="I14" s="272"/>
-      <c r="J14" s="272"/>
-      <c r="K14" s="273" t="s">
+      <c r="H14" s="287"/>
+      <c r="I14" s="287"/>
+      <c r="J14" s="287"/>
+      <c r="K14" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="273"/>
-      <c r="M14" s="273"/>
+      <c r="L14" s="288"/>
+      <c r="M14" s="288"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -5546,17 +5715,17 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="271" t="s">
+      <c r="G15" s="286" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="272"/>
-      <c r="I15" s="272"/>
-      <c r="J15" s="272"/>
-      <c r="K15" s="273" t="s">
+      <c r="H15" s="287"/>
+      <c r="I15" s="287"/>
+      <c r="J15" s="287"/>
+      <c r="K15" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="273"/>
-      <c r="M15" s="273"/>
+      <c r="L15" s="288"/>
+      <c r="M15" s="288"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -5578,17 +5747,17 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="274" t="s">
+      <c r="G16" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="275"/>
-      <c r="I16" s="275"/>
-      <c r="J16" s="275"/>
-      <c r="K16" s="273" t="s">
+      <c r="H16" s="290"/>
+      <c r="I16" s="290"/>
+      <c r="J16" s="290"/>
+      <c r="K16" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="273"/>
-      <c r="M16" s="273"/>
+      <c r="L16" s="288"/>
+      <c r="M16" s="288"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -5610,17 +5779,17 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="276" t="s">
+      <c r="G17" s="291" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="272"/>
-      <c r="I17" s="272"/>
-      <c r="J17" s="272"/>
-      <c r="K17" s="273" t="s">
+      <c r="H17" s="287"/>
+      <c r="I17" s="287"/>
+      <c r="J17" s="287"/>
+      <c r="K17" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="273"/>
-      <c r="M17" s="273"/>
+      <c r="L17" s="288"/>
+      <c r="M17" s="288"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -5642,17 +5811,17 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="276" t="s">
+      <c r="G18" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="272"/>
-      <c r="I18" s="272"/>
-      <c r="J18" s="272"/>
-      <c r="K18" s="273" t="s">
+      <c r="H18" s="287"/>
+      <c r="I18" s="287"/>
+      <c r="J18" s="287"/>
+      <c r="K18" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="273"/>
-      <c r="M18" s="273"/>
+      <c r="L18" s="288"/>
+      <c r="M18" s="288"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -5674,17 +5843,17 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="280" t="s">
+      <c r="G19" s="295" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="281"/>
-      <c r="I19" s="281"/>
-      <c r="J19" s="281"/>
-      <c r="K19" s="273" t="s">
+      <c r="H19" s="296"/>
+      <c r="I19" s="296"/>
+      <c r="J19" s="296"/>
+      <c r="K19" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="273"/>
-      <c r="M19" s="273"/>
+      <c r="L19" s="288"/>
+      <c r="M19" s="288"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -5706,17 +5875,17 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="277" t="s">
+      <c r="G20" s="292" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="278"/>
-      <c r="I20" s="278"/>
-      <c r="J20" s="279"/>
-      <c r="K20" s="273" t="s">
+      <c r="H20" s="293"/>
+      <c r="I20" s="293"/>
+      <c r="J20" s="294"/>
+      <c r="K20" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="273"/>
-      <c r="M20" s="273"/>
+      <c r="L20" s="288"/>
+      <c r="M20" s="288"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -5738,17 +5907,17 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="277" t="s">
+      <c r="G21" s="292" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="278"/>
-      <c r="I21" s="278"/>
-      <c r="J21" s="279"/>
-      <c r="K21" s="273" t="s">
+      <c r="H21" s="293"/>
+      <c r="I21" s="293"/>
+      <c r="J21" s="294"/>
+      <c r="K21" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="273"/>
-      <c r="M21" s="273"/>
+      <c r="L21" s="288"/>
+      <c r="M21" s="288"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -5770,17 +5939,17 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="277" t="s">
+      <c r="G22" s="292" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="278"/>
-      <c r="I22" s="278"/>
-      <c r="J22" s="279"/>
-      <c r="K22" s="273" t="s">
+      <c r="H22" s="293"/>
+      <c r="I22" s="293"/>
+      <c r="J22" s="294"/>
+      <c r="K22" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="273"/>
-      <c r="M22" s="273"/>
+      <c r="L22" s="288"/>
+      <c r="M22" s="288"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -5802,17 +5971,17 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="277" t="s">
+      <c r="G23" s="292" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="278"/>
-      <c r="I23" s="278"/>
-      <c r="J23" s="279"/>
-      <c r="K23" s="294" t="s">
+      <c r="H23" s="293"/>
+      <c r="I23" s="293"/>
+      <c r="J23" s="294"/>
+      <c r="K23" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="L23" s="294"/>
-      <c r="M23" s="294"/>
+      <c r="L23" s="309"/>
+      <c r="M23" s="309"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -5834,17 +6003,17 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="277" t="s">
+      <c r="G24" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="278"/>
-      <c r="I24" s="278"/>
-      <c r="J24" s="279"/>
-      <c r="K24" s="273" t="s">
+      <c r="H24" s="293"/>
+      <c r="I24" s="293"/>
+      <c r="J24" s="294"/>
+      <c r="K24" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="273"/>
-      <c r="M24" s="273"/>
+      <c r="L24" s="288"/>
+      <c r="M24" s="288"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -5866,17 +6035,17 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="277" t="s">
+      <c r="G25" s="292" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="278"/>
-      <c r="I25" s="278"/>
-      <c r="J25" s="279"/>
-      <c r="K25" s="294" t="s">
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="294"/>
+      <c r="K25" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="294"/>
-      <c r="M25" s="294"/>
+      <c r="L25" s="309"/>
+      <c r="M25" s="309"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -5898,17 +6067,17 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="277" t="s">
+      <c r="G26" s="292" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="278"/>
-      <c r="I26" s="278"/>
-      <c r="J26" s="279"/>
-      <c r="K26" s="294" t="s">
+      <c r="H26" s="293"/>
+      <c r="I26" s="293"/>
+      <c r="J26" s="294"/>
+      <c r="K26" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="L26" s="294"/>
-      <c r="M26" s="294"/>
+      <c r="L26" s="309"/>
+      <c r="M26" s="309"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -5933,14 +6102,14 @@
       <c r="G27" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="266"/>
-      <c r="I27" s="267"/>
-      <c r="J27" s="267"/>
-      <c r="K27" s="268" t="s">
+      <c r="H27" s="281"/>
+      <c r="I27" s="282"/>
+      <c r="J27" s="282"/>
+      <c r="K27" s="283" t="s">
         <v>73</v>
       </c>
-      <c r="L27" s="269"/>
-      <c r="M27" s="270"/>
+      <c r="L27" s="284"/>
+      <c r="M27" s="285"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
@@ -5962,17 +6131,17 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="277" t="s">
+      <c r="G28" s="292" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="278"/>
-      <c r="I28" s="278"/>
-      <c r="J28" s="279"/>
-      <c r="K28" s="273" t="s">
+      <c r="H28" s="293"/>
+      <c r="I28" s="293"/>
+      <c r="J28" s="294"/>
+      <c r="K28" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="L28" s="273"/>
-      <c r="M28" s="273"/>
+      <c r="L28" s="288"/>
+      <c r="M28" s="288"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -5994,17 +6163,17 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="277" t="s">
+      <c r="G29" s="292" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="278"/>
-      <c r="I29" s="278"/>
-      <c r="J29" s="278"/>
-      <c r="K29" s="292" t="s">
+      <c r="H29" s="293"/>
+      <c r="I29" s="293"/>
+      <c r="J29" s="293"/>
+      <c r="K29" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="293"/>
-      <c r="M29" s="293"/>
+      <c r="L29" s="308"/>
+      <c r="M29" s="308"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -6026,17 +6195,17 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="277" t="s">
+      <c r="G30" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="278"/>
-      <c r="I30" s="278"/>
-      <c r="J30" s="278"/>
-      <c r="K30" s="292" t="s">
+      <c r="H30" s="293"/>
+      <c r="I30" s="293"/>
+      <c r="J30" s="293"/>
+      <c r="K30" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="L30" s="293"/>
-      <c r="M30" s="293"/>
+      <c r="L30" s="308"/>
+      <c r="M30" s="308"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -12369,11 +12538,11 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="308" t="s">
+      <c r="C7" s="325" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="281"/>
-      <c r="E7" s="290"/>
+      <c r="D7" s="296"/>
+      <c r="E7" s="305"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -12399,9 +12568,9 @@
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="309"/>
-      <c r="D8" s="275"/>
-      <c r="E8" s="310"/>
+      <c r="C8" s="326"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="327"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -12483,11 +12652,11 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="307">
+      <c r="C11" s="324">
         <v>43580</v>
       </c>
-      <c r="D11" s="272"/>
-      <c r="E11" s="272"/>
+      <c r="D11" s="287"/>
+      <c r="E11" s="287"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -19369,16 +19538,16 @@
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="49"/>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="318" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="300"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="319"/>
+      <c r="J7" s="319"/>
       <c r="K7" s="49"/>
       <c r="L7" s="49"/>
       <c r="M7" s="49"/>
@@ -19400,14 +19569,14 @@
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="49"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="300"/>
-      <c r="G8" s="300"/>
-      <c r="H8" s="300"/>
-      <c r="I8" s="300"/>
-      <c r="J8" s="300"/>
+      <c r="C8" s="318"/>
+      <c r="D8" s="319"/>
+      <c r="E8" s="319"/>
+      <c r="F8" s="319"/>
+      <c r="G8" s="319"/>
+      <c r="H8" s="319"/>
+      <c r="I8" s="319"/>
+      <c r="J8" s="319"/>
       <c r="K8" s="49"/>
       <c r="L8" s="49"/>
       <c r="M8" s="49"/>
@@ -19487,14 +19656,14 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
-      <c r="C11" s="301"/>
-      <c r="D11" s="302"/>
-      <c r="E11" s="302"/>
-      <c r="F11" s="302"/>
-      <c r="G11" s="302"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="302"/>
-      <c r="J11" s="302"/>
+      <c r="C11" s="316"/>
+      <c r="D11" s="317"/>
+      <c r="E11" s="317"/>
+      <c r="F11" s="317"/>
+      <c r="G11" s="317"/>
+      <c r="H11" s="317"/>
+      <c r="I11" s="317"/>
+      <c r="J11" s="317"/>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
@@ -21500,9 +21669,9 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21696,16 +21865,16 @@
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="318" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="300"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="319"/>
+      <c r="J7" s="319"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -21727,14 +21896,14 @@
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="300"/>
-      <c r="G8" s="300"/>
-      <c r="H8" s="300"/>
-      <c r="I8" s="300"/>
-      <c r="J8" s="300"/>
+      <c r="C8" s="318"/>
+      <c r="D8" s="319"/>
+      <c r="E8" s="319"/>
+      <c r="F8" s="319"/>
+      <c r="G8" s="319"/>
+      <c r="H8" s="319"/>
+      <c r="I8" s="319"/>
+      <c r="J8" s="319"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -21814,14 +21983,14 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="301"/>
-      <c r="D11" s="302"/>
-      <c r="E11" s="302"/>
-      <c r="F11" s="302"/>
-      <c r="G11" s="302"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="302"/>
-      <c r="J11" s="302"/>
+      <c r="C11" s="316"/>
+      <c r="D11" s="317"/>
+      <c r="E11" s="317"/>
+      <c r="F11" s="317"/>
+      <c r="G11" s="317"/>
+      <c r="H11" s="317"/>
+      <c r="I11" s="317"/>
+      <c r="J11" s="317"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
@@ -21949,7 +22118,7 @@
       <c r="C15" s="193">
         <v>1</v>
       </c>
-      <c r="D15" s="262" t="s">
+      <c r="D15" s="53" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="39" t="s">
@@ -23835,12 +24004,9 @@
     <mergeCell ref="C7:J8"/>
     <mergeCell ref="C11:J11"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -24029,10 +24195,10 @@
       <c r="A7" s="1"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="296" t="s">
+      <c r="D7" s="311" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="296"/>
+      <c r="E7" s="311"/>
       <c r="F7" s="173"/>
       <c r="G7" s="170"/>
       <c r="H7" s="29"/>
@@ -24057,8 +24223,8 @@
       <c r="A8" s="1"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="296"/>
-      <c r="E8" s="296"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
       <c r="F8" s="170"/>
       <c r="G8" s="170"/>
       <c r="H8" s="29"/>
@@ -24452,7 +24618,7 @@
       <c r="B26" s="18"/>
       <c r="C26" s="21"/>
       <c r="D26" s="174"/>
-      <c r="E26" s="311">
+      <c r="E26" s="328">
         <v>1</v>
       </c>
       <c r="F26" s="157" t="s">
@@ -24479,7 +24645,7 @@
       <c r="B27" s="18"/>
       <c r="C27" s="1"/>
       <c r="D27" s="54"/>
-      <c r="E27" s="311"/>
+      <c r="E27" s="328"/>
       <c r="F27" s="157" t="s">
         <v>138</v>
       </c>
@@ -24504,10 +24670,10 @@
       <c r="B28" s="18"/>
       <c r="C28" s="1"/>
       <c r="D28" s="54"/>
-      <c r="E28" s="312" t="s">
+      <c r="E28" s="329" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="313"/>
+      <c r="F28" s="330"/>
       <c r="G28" s="70">
         <f>SUM(G26+G27)</f>
         <v>0.29166666666666669</v>
@@ -29410,8 +29576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29459,24 +29625,24 @@
     </row>
     <row r="7" spans="2:11" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="296" t="s">
+      <c r="B8" s="311" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="278"/>
-      <c r="D8" s="278"/>
-      <c r="E8" s="278"/>
+      <c r="C8" s="293"/>
+      <c r="D8" s="293"/>
+      <c r="E8" s="293"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="278"/>
-      <c r="C9" s="278"/>
-      <c r="D9" s="278"/>
-      <c r="E9" s="278"/>
+      <c r="B9" s="293"/>
+      <c r="C9" s="293"/>
+      <c r="D9" s="293"/>
+      <c r="E9" s="293"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="295" t="s">
+      <c r="B10" s="310" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="295"/>
+      <c r="C10" s="310"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="65" t="s">
@@ -29584,10 +29750,10 @@
       <c r="E20" s="23"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="297" t="s">
+      <c r="B21" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="297"/>
+      <c r="C21" s="312"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
     </row>
@@ -29680,10 +29846,10 @@
       <c r="E31" s="23"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="298" t="s">
+      <c r="B32" s="313" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="298"/>
+      <c r="C32" s="313"/>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
     </row>
@@ -29783,9 +29949,9 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:K8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30091,15 +30257,15 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
-      <c r="C11" s="301"/>
-      <c r="D11" s="302"/>
-      <c r="E11" s="302"/>
-      <c r="F11" s="302"/>
-      <c r="G11" s="302"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="302"/>
-      <c r="J11" s="302"/>
-      <c r="K11" s="302"/>
+      <c r="C11" s="316"/>
+      <c r="D11" s="317"/>
+      <c r="E11" s="317"/>
+      <c r="F11" s="317"/>
+      <c r="G11" s="317"/>
+      <c r="H11" s="317"/>
+      <c r="I11" s="317"/>
+      <c r="J11" s="317"/>
+      <c r="K11" s="317"/>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
       <c r="N11" s="49"/>
@@ -30304,19 +30470,19 @@
       <c r="G16" s="167" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="263" t="s">
+      <c r="H16" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="I16" s="264" t="s">
+      <c r="I16" s="261" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="264" t="s">
+      <c r="J16" s="261" t="s">
         <v>132</v>
       </c>
       <c r="K16" s="167" t="s">
         <v>178</v>
       </c>
-      <c r="L16" s="265"/>
+      <c r="L16" s="262"/>
       <c r="M16" s="67"/>
       <c r="N16" s="67"/>
       <c r="O16" s="67"/>
@@ -32113,28 +32279,64 @@
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="49"/>
       <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
+      <c r="C66" s="213">
+        <v>53</v>
+      </c>
+      <c r="D66" s="231">
+        <v>44602</v>
+      </c>
+      <c r="E66" s="264" t="s">
+        <v>534</v>
+      </c>
+      <c r="F66" s="214" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="206" t="s">
+        <v>103</v>
+      </c>
+      <c r="H66" s="212" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="J66" s="212" t="s">
+        <v>106</v>
+      </c>
+      <c r="K66" s="206" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="49"/>
       <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
+      <c r="C67" s="183">
+        <v>54</v>
+      </c>
+      <c r="D67" s="231">
+        <v>44602</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>537</v>
+      </c>
+      <c r="F67" s="214" t="s">
+        <v>126</v>
+      </c>
+      <c r="G67" s="206" t="s">
+        <v>103</v>
+      </c>
+      <c r="H67" s="212" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="J67" s="212" t="s">
+        <v>106</v>
+      </c>
+      <c r="K67" s="263" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="49"/>
@@ -33922,41 +34124,41 @@
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="E67">
-    <cfRule type="duplicateValues" dxfId="90" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="88" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="duplicateValues" dxfId="86" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="85" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="83" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="duplicateValues" dxfId="82" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="duplicateValues" dxfId="80" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="duplicateValues" dxfId="78" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="duplicateValues" dxfId="74" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -33969,9 +34171,9 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AB990"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34174,17 +34376,17 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="318" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="300"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="319"/>
+      <c r="J7" s="319"/>
+      <c r="K7" s="319"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
@@ -34206,15 +34408,15 @@
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="300"/>
-      <c r="G8" s="300"/>
-      <c r="H8" s="300"/>
-      <c r="I8" s="300"/>
-      <c r="J8" s="300"/>
-      <c r="K8" s="300"/>
+      <c r="C8" s="318"/>
+      <c r="D8" s="319"/>
+      <c r="E8" s="319"/>
+      <c r="F8" s="319"/>
+      <c r="G8" s="319"/>
+      <c r="H8" s="319"/>
+      <c r="I8" s="319"/>
+      <c r="J8" s="319"/>
+      <c r="K8" s="319"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -34296,15 +34498,15 @@
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
-      <c r="C11" s="301"/>
-      <c r="D11" s="302"/>
-      <c r="E11" s="302"/>
-      <c r="F11" s="302"/>
-      <c r="G11" s="302"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="302"/>
-      <c r="J11" s="302"/>
-      <c r="K11" s="302"/>
+      <c r="C11" s="316"/>
+      <c r="D11" s="317"/>
+      <c r="E11" s="317"/>
+      <c r="F11" s="317"/>
+      <c r="G11" s="317"/>
+      <c r="H11" s="317"/>
+      <c r="I11" s="317"/>
+      <c r="J11" s="317"/>
+      <c r="K11" s="317"/>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
       <c r="N11" s="49"/>
@@ -36092,38 +36294,148 @@
       </c>
     </row>
     <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="213">
+      <c r="C59" s="265">
         <v>45</v>
       </c>
-      <c r="D59" s="231">
+      <c r="D59" s="266">
         <v>44621</v>
       </c>
-      <c r="E59" s="94" t="s">
+      <c r="E59" s="267" t="s">
         <v>206</v>
       </c>
-      <c r="F59" s="206" t="s">
+      <c r="F59" s="268" t="s">
         <v>126</v>
       </c>
-      <c r="G59" s="206" t="s">
+      <c r="G59" s="268" t="s">
         <v>103</v>
       </c>
-      <c r="H59" s="94" t="s">
+      <c r="H59" s="267" t="s">
         <v>101</v>
       </c>
-      <c r="I59" s="23" t="s">
+      <c r="I59" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="J59" s="94" t="s">
+      <c r="J59" s="267" t="s">
         <v>106</v>
       </c>
       <c r="K59" s="24" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="213">
+        <v>46</v>
+      </c>
+      <c r="D60" s="231">
+        <v>44630</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="F60" s="268" t="s">
+        <v>126</v>
+      </c>
+      <c r="G60" s="268" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60" s="212" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60" s="269" t="s">
+        <v>105</v>
+      </c>
+      <c r="J60" s="267" t="s">
+        <v>106</v>
+      </c>
+      <c r="K60" s="206" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="265">
+        <v>47</v>
+      </c>
+      <c r="D61" s="266">
+        <v>44630</v>
+      </c>
+      <c r="E61" s="200" t="s">
+        <v>518</v>
+      </c>
+      <c r="F61" s="268" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" s="268" t="s">
+        <v>103</v>
+      </c>
+      <c r="H61" s="268"/>
+      <c r="I61" s="269" t="s">
+        <v>105</v>
+      </c>
+      <c r="J61" s="267" t="s">
+        <v>106</v>
+      </c>
+      <c r="K61" s="268" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="265">
+        <v>48</v>
+      </c>
+      <c r="D62" s="266">
+        <v>44630</v>
+      </c>
+      <c r="E62" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="F62" s="268" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" s="268" t="s">
+        <v>103</v>
+      </c>
+      <c r="H62" s="280" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62" s="269" t="s">
+        <v>105</v>
+      </c>
+      <c r="J62" s="267" t="s">
+        <v>106</v>
+      </c>
+      <c r="K62" s="206" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="213">
+        <v>49</v>
+      </c>
+      <c r="D63" s="206" t="s">
+        <v>533</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="268" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" s="268" t="s">
+        <v>103</v>
+      </c>
+      <c r="H63" s="206" t="s">
+        <v>501</v>
+      </c>
+      <c r="I63" s="269" t="s">
+        <v>105</v>
+      </c>
+      <c r="J63" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="K63" s="214" t="s">
+        <v>535</v>
+      </c>
+    </row>
     <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37057,88 +37369,88 @@
     <mergeCell ref="C11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="E16">
-    <cfRule type="duplicateValues" dxfId="73" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="72" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="duplicateValues" dxfId="71" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="duplicateValues" dxfId="70" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="duplicateValues" dxfId="69" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="68" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="duplicateValues" dxfId="67" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="duplicateValues" dxfId="66" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="duplicateValues" dxfId="65" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="duplicateValues" dxfId="64" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="duplicateValues" dxfId="63" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="duplicateValues" dxfId="62" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="duplicateValues" dxfId="61" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="duplicateValues" dxfId="60" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="duplicateValues" dxfId="59" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="duplicateValues" dxfId="58" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="duplicateValues" dxfId="57" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="duplicateValues" dxfId="56" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="duplicateValues" dxfId="55" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="duplicateValues" dxfId="54" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="duplicateValues" dxfId="53" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="duplicateValues" dxfId="52" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="duplicateValues" dxfId="51" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="duplicateValues" dxfId="50" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="duplicateValues" dxfId="48" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -37151,9 +37463,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:U865"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37163,7 +37475,7 @@
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="24" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
     <col min="7" max="7" width="44.85546875" style="24" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="21.140625" customWidth="1"/>
@@ -37313,17 +37625,17 @@
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="318" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="300"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="319"/>
+      <c r="J7" s="319"/>
+      <c r="K7" s="319"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -37338,15 +37650,15 @@
     <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="300"/>
-      <c r="G8" s="300"/>
-      <c r="H8" s="300"/>
-      <c r="I8" s="300"/>
-      <c r="J8" s="300"/>
-      <c r="K8" s="300"/>
+      <c r="C8" s="318"/>
+      <c r="D8" s="319"/>
+      <c r="E8" s="319"/>
+      <c r="F8" s="319"/>
+      <c r="G8" s="319"/>
+      <c r="H8" s="319"/>
+      <c r="I8" s="319"/>
+      <c r="J8" s="319"/>
+      <c r="K8" s="319"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -37407,15 +37719,15 @@
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="301"/>
-      <c r="D11" s="302"/>
-      <c r="E11" s="302"/>
-      <c r="F11" s="302"/>
-      <c r="G11" s="302"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="302"/>
-      <c r="J11" s="302"/>
-      <c r="K11" s="302"/>
+      <c r="C11" s="316"/>
+      <c r="D11" s="317"/>
+      <c r="E11" s="317"/>
+      <c r="F11" s="317"/>
+      <c r="G11" s="317"/>
+      <c r="H11" s="317"/>
+      <c r="I11" s="317"/>
+      <c r="J11" s="317"/>
+      <c r="K11" s="317"/>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
       <c r="N11" s="49"/>
@@ -39016,7 +39328,9 @@
       <c r="G55" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="H55" s="52"/>
+      <c r="H55" s="157" t="s">
+        <v>74</v>
+      </c>
       <c r="I55" s="40" t="s">
         <v>105</v>
       </c>
@@ -39154,7 +39468,7 @@
         <v>482</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>348</v>
+        <v>515</v>
       </c>
       <c r="F59" s="40" t="s">
         <v>126</v>
@@ -39162,14 +39476,16 @@
       <c r="G59" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="H59" s="52"/>
+      <c r="H59" s="157" t="s">
+        <v>74</v>
+      </c>
       <c r="I59" s="40" t="s">
         <v>105</v>
       </c>
       <c r="J59" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="K59" s="51" t="s">
+      <c r="K59" s="53" t="s">
         <v>488</v>
       </c>
       <c r="L59" s="244"/>
@@ -39324,74 +39640,135 @@
     <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="26"/>
-      <c r="C64" s="233">
+      <c r="C64" s="270">
         <v>51</v>
       </c>
-      <c r="D64" s="234">
+      <c r="D64" s="271">
         <v>44621</v>
       </c>
-      <c r="E64" s="39" t="s">
+      <c r="E64" s="200" t="s">
         <v>269</v>
       </c>
-      <c r="F64" s="206" t="s">
+      <c r="F64" s="268" t="s">
         <v>126</v>
       </c>
-      <c r="G64" s="206" t="s">
+      <c r="G64" s="268" t="s">
         <v>103</v>
       </c>
-      <c r="H64" s="253" t="s">
+      <c r="H64" s="272" t="s">
         <v>74</v>
       </c>
-      <c r="I64" s="53" t="s">
+      <c r="I64" s="273" t="s">
         <v>105</v>
       </c>
-      <c r="J64" s="129" t="s">
+      <c r="J64" s="274" t="s">
         <v>106</v>
       </c>
-      <c r="K64" s="232" t="s">
+      <c r="K64" s="275" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
       <c r="B65" s="26"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="233">
+        <v>52</v>
+      </c>
+      <c r="D65" s="234">
+        <v>44630</v>
+      </c>
+      <c r="E65" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="F65" s="268" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" s="268" t="s">
+        <v>103</v>
+      </c>
+      <c r="H65" s="272" t="s">
+        <v>74</v>
+      </c>
+      <c r="I65" s="272" t="s">
+        <v>74</v>
+      </c>
+      <c r="J65" s="272" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" s="232" t="s">
+        <v>521</v>
+      </c>
+      <c r="L65" s="232"/>
+    </row>
+    <row r="66" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
       <c r="B66" s="26"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="233">
+        <v>53</v>
+      </c>
+      <c r="D66" s="234">
+        <v>44630</v>
+      </c>
+      <c r="E66" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="276" t="s">
+        <v>523</v>
+      </c>
+      <c r="G66" s="268" t="s">
+        <v>103</v>
+      </c>
+      <c r="H66" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J66" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="K66" s="251" t="s">
+        <v>522</v>
+      </c>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="67"/>
+      <c r="O66" s="67"/>
+      <c r="P66" s="67"/>
+      <c r="Q66" s="67"/>
+    </row>
+    <row r="67" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
       <c r="B67" s="26"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="233">
+        <v>54</v>
+      </c>
+      <c r="D67" s="234">
+        <v>44630</v>
+      </c>
+      <c r="E67" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="F67" s="206" t="s">
+        <v>126</v>
+      </c>
+      <c r="G67" s="206" t="s">
+        <v>103</v>
+      </c>
+      <c r="H67" s="157" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J67" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K67" s="232" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="26"/>
       <c r="B68" s="26"/>
       <c r="C68" s="67"/>
@@ -39404,7 +39781,7 @@
       <c r="J68" s="26"/>
       <c r="K68" s="26"/>
     </row>
-    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
       <c r="B69" s="26"/>
       <c r="C69" s="67"/>
@@ -39417,7 +39794,7 @@
       <c r="J69" s="26"/>
       <c r="K69" s="26"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="26"/>
       <c r="B70" s="26"/>
       <c r="C70" s="67"/>
@@ -39430,7 +39807,7 @@
       <c r="J70" s="26"/>
       <c r="K70" s="26"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="26"/>
       <c r="B71" s="26"/>
       <c r="C71" s="67"/>
@@ -39443,7 +39820,7 @@
       <c r="J71" s="26"/>
       <c r="K71" s="26"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="26"/>
       <c r="B72" s="26"/>
       <c r="C72" s="67"/>
@@ -39456,7 +39833,7 @@
       <c r="J72" s="26"/>
       <c r="K72" s="26"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="26"/>
       <c r="B73" s="26"/>
       <c r="C73" s="67"/>
@@ -39469,7 +39846,7 @@
       <c r="J73" s="26"/>
       <c r="K73" s="26"/>
     </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="26"/>
       <c r="C74" s="67"/>
@@ -39482,7 +39859,7 @@
       <c r="J74" s="26"/>
       <c r="K74" s="26"/>
     </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="26"/>
       <c r="B75" s="26"/>
       <c r="C75" s="67"/>
@@ -39495,7 +39872,7 @@
       <c r="J75" s="26"/>
       <c r="K75" s="26"/>
     </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26"/>
       <c r="B76" s="26"/>
       <c r="C76" s="67"/>
@@ -39508,7 +39885,7 @@
       <c r="J76" s="26"/>
       <c r="K76" s="26"/>
     </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="26"/>
       <c r="B77" s="26"/>
       <c r="C77" s="67"/>
@@ -39521,7 +39898,7 @@
       <c r="J77" s="26"/>
       <c r="K77" s="26"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="26"/>
       <c r="B78" s="26"/>
       <c r="C78" s="67"/>
@@ -39534,7 +39911,7 @@
       <c r="J78" s="26"/>
       <c r="K78" s="26"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="26"/>
       <c r="B79" s="26"/>
       <c r="C79" s="67"/>
@@ -39547,7 +39924,7 @@
       <c r="J79" s="26"/>
       <c r="K79" s="26"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26"/>
       <c r="B80" s="26"/>
       <c r="C80" s="67"/>
@@ -42452,2948 +42829,103 @@
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="E259">
-    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E265">
-    <cfRule type="duplicateValues" dxfId="44" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E270">
-    <cfRule type="duplicateValues" dxfId="43" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E296">
-    <cfRule type="duplicateValues" dxfId="42" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="duplicateValues" dxfId="41" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="duplicateValues" dxfId="40" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="duplicateValues" dxfId="39" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="duplicateValues" dxfId="38" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="duplicateValues" dxfId="37" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="duplicateValues" dxfId="36" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="duplicateValues" dxfId="35" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="duplicateValues" dxfId="34" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="duplicateValues" dxfId="33" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="duplicateValues" dxfId="32" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="duplicateValues" dxfId="31" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="duplicateValues" dxfId="30" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="duplicateValues" dxfId="28" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="duplicateValues" dxfId="22" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F66" r:id="rId1" display="https://href.li/?https://www.proheathydronicheating.com.au/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:T825"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
-    <col min="7" max="7" width="48" style="24" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" customWidth="1"/>
-    <col min="12" max="20" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="299" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="300"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="300"/>
-      <c r="G8" s="300"/>
-      <c r="H8" s="300"/>
-      <c r="I8" s="300"/>
-      <c r="J8" s="300"/>
-      <c r="K8" s="300"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="301"/>
-      <c r="D11" s="302"/>
-      <c r="E11" s="302"/>
-      <c r="F11" s="302"/>
-      <c r="G11" s="302"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="302"/>
-      <c r="J11" s="302"/>
-      <c r="K11" s="302"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="164" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="164" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="165" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="165" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="165" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="165" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="165" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="188">
-        <v>1</v>
-      </c>
-      <c r="D14" s="131">
-        <v>44508</v>
-      </c>
-      <c r="E14" s="166" t="s">
-        <v>212</v>
-      </c>
-      <c r="F14" s="167" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-    </row>
-    <row r="15" spans="1:20" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="188">
-        <v>2</v>
-      </c>
-      <c r="D15" s="132">
-        <v>44509</v>
-      </c>
-      <c r="E15" s="166" t="s">
-        <v>218</v>
-      </c>
-      <c r="F15" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="168" t="s">
-        <v>217</v>
-      </c>
-      <c r="K15" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-    </row>
-    <row r="16" spans="1:20" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="188">
-        <v>3</v>
-      </c>
-      <c r="D16" s="132">
-        <v>44510</v>
-      </c>
-      <c r="E16" s="166" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="I16" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" s="168" t="s">
-        <v>217</v>
-      </c>
-      <c r="K16" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-    </row>
-    <row r="17" spans="1:20" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="188">
-        <v>4</v>
-      </c>
-      <c r="D17" s="132">
-        <v>44510</v>
-      </c>
-      <c r="E17" s="166" t="s">
-        <v>201</v>
-      </c>
-      <c r="F17" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="I17" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="168" t="s">
-        <v>217</v>
-      </c>
-      <c r="K17" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-    </row>
-    <row r="18" spans="1:20" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="188">
-        <v>5</v>
-      </c>
-      <c r="D18" s="132">
-        <v>44510</v>
-      </c>
-      <c r="E18" s="166" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="168" t="s">
-        <v>217</v>
-      </c>
-      <c r="K18" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-    </row>
-    <row r="19" spans="1:20" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="188">
-        <v>6</v>
-      </c>
-      <c r="D19" s="132">
-        <v>44511</v>
-      </c>
-      <c r="E19" s="166" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19" s="168" t="s">
-        <v>217</v>
-      </c>
-      <c r="K19" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="188">
-        <v>7</v>
-      </c>
-      <c r="D20" s="132">
-        <v>44511</v>
-      </c>
-      <c r="E20" s="166" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="188">
-        <v>8</v>
-      </c>
-      <c r="D21" s="132">
-        <v>44511</v>
-      </c>
-      <c r="E21" s="166" t="s">
-        <v>229</v>
-      </c>
-      <c r="F21" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="188">
-        <v>9</v>
-      </c>
-      <c r="D22" s="132">
-        <v>44512</v>
-      </c>
-      <c r="E22" s="166" t="s">
-        <v>230</v>
-      </c>
-      <c r="F22" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K22" s="52" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="188">
-        <v>10</v>
-      </c>
-      <c r="D23" s="132">
-        <v>44516</v>
-      </c>
-      <c r="E23" s="166" t="s">
-        <v>207</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="52" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="188">
-        <v>11</v>
-      </c>
-      <c r="D24" s="132">
-        <v>44516</v>
-      </c>
-      <c r="E24" s="166" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J24" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="K24" s="52" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="188">
-        <v>12</v>
-      </c>
-      <c r="D25" s="132">
-        <v>44517</v>
-      </c>
-      <c r="E25" s="166" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I25" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J25" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K25" s="52" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="188">
-        <v>13</v>
-      </c>
-      <c r="D26" s="132">
-        <v>44518</v>
-      </c>
-      <c r="E26" s="166" t="s">
-        <v>206</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J26" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K26" s="52" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="188">
-        <v>14</v>
-      </c>
-      <c r="D27" s="132">
-        <v>44518</v>
-      </c>
-      <c r="E27" s="166" t="s">
-        <v>221</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" s="52" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="188">
-        <v>15</v>
-      </c>
-      <c r="D28" s="132">
-        <v>44526</v>
-      </c>
-      <c r="E28" s="166" t="s">
-        <v>221</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I28" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K28" s="52" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="188">
-        <v>16</v>
-      </c>
-      <c r="D29" s="132">
-        <v>44531</v>
-      </c>
-      <c r="E29" s="166" t="s">
-        <v>221</v>
-      </c>
-      <c r="F29" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K29" s="144" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="188">
-        <v>17</v>
-      </c>
-      <c r="D30" s="124">
-        <v>44451</v>
-      </c>
-      <c r="E30" s="133" t="s">
-        <v>286</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I30" s="135" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="135" t="s">
-        <v>106</v>
-      </c>
-      <c r="K30" s="40" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="188">
-        <v>18</v>
-      </c>
-      <c r="D31" s="182" t="s">
-        <v>300</v>
-      </c>
-      <c r="E31" s="133" t="s">
-        <v>238</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I31" s="135" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" s="135" t="s">
-        <v>106</v>
-      </c>
-      <c r="K31" s="40" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="198">
-        <v>19</v>
-      </c>
-      <c r="D32" s="199" t="s">
-        <v>325</v>
-      </c>
-      <c r="E32" s="137" t="s">
-        <v>333</v>
-      </c>
-      <c r="F32" s="137" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" s="137" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="137" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="137" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" s="137" t="s">
-        <v>106</v>
-      </c>
-      <c r="K32" s="137" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="188">
-        <v>20</v>
-      </c>
-      <c r="D33" s="182" t="s">
-        <v>325</v>
-      </c>
-      <c r="E33" s="126" t="s">
-        <v>206</v>
-      </c>
-      <c r="F33" s="126" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" s="126" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="I33" s="126" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" s="126" t="s">
-        <v>106</v>
-      </c>
-      <c r="K33" s="126" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="188">
-        <v>21</v>
-      </c>
-      <c r="D34" s="182" t="s">
-        <v>325</v>
-      </c>
-      <c r="E34" s="166" t="s">
-        <v>221</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I34" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J34" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K34" s="52" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="188">
-        <v>22</v>
-      </c>
-      <c r="D35" s="189" t="s">
-        <v>357</v>
-      </c>
-      <c r="E35" s="166" t="s">
-        <v>221</v>
-      </c>
-      <c r="F35" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H35" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I35" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J35" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K35" s="169" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="188">
-        <v>23</v>
-      </c>
-      <c r="D36" s="189" t="s">
-        <v>357</v>
-      </c>
-      <c r="E36" s="126" t="s">
-        <v>353</v>
-      </c>
-      <c r="F36" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H36" s="151" t="s">
-        <v>354</v>
-      </c>
-      <c r="I36" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J36" s="158" t="s">
-        <v>106</v>
-      </c>
-      <c r="K36" s="126" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="188">
-        <v>24</v>
-      </c>
-      <c r="D37" s="189" t="s">
-        <v>357</v>
-      </c>
-      <c r="E37" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I37" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="K37" s="126" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="79"/>
-      <c r="C38" s="188">
-        <v>25</v>
-      </c>
-      <c r="D38" s="124">
-        <v>44713</v>
-      </c>
-      <c r="E38" s="126" t="s">
-        <v>353</v>
-      </c>
-      <c r="F38" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H38" s="151" t="s">
-        <v>354</v>
-      </c>
-      <c r="I38" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J38" s="158" t="s">
-        <v>106</v>
-      </c>
-      <c r="K38" s="126" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="79"/>
-      <c r="C39" s="188">
-        <v>26</v>
-      </c>
-      <c r="D39" s="124">
-        <v>44713</v>
-      </c>
-      <c r="E39" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I39" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J39" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="K39" s="126" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="79"/>
-      <c r="C40" s="188">
-        <v>27</v>
-      </c>
-      <c r="D40" s="124">
-        <v>44713</v>
-      </c>
-      <c r="E40" s="126" t="s">
-        <v>375</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>376</v>
-      </c>
-      <c r="H40" s="151" t="s">
-        <v>354</v>
-      </c>
-      <c r="I40" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J40" s="126" t="s">
-        <v>106</v>
-      </c>
-      <c r="K40" s="126" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="188">
-        <v>28</v>
-      </c>
-      <c r="D41" s="124">
-        <v>44713</v>
-      </c>
-      <c r="E41" s="126" t="s">
-        <v>333</v>
-      </c>
-      <c r="F41" s="126" t="s">
-        <v>126</v>
-      </c>
-      <c r="G41" s="126" t="s">
-        <v>103</v>
-      </c>
-      <c r="H41" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="I41" s="126" t="s">
-        <v>105</v>
-      </c>
-      <c r="J41" s="126" t="s">
-        <v>106</v>
-      </c>
-      <c r="K41" s="126" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="183">
-        <v>29</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H42" s="151" t="s">
-        <v>354</v>
-      </c>
-      <c r="I42" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J42" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K42" s="39" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="183">
-        <v>30</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="E43" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I43" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J43" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="K43" s="39" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="183">
-        <v>31</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="F44" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I44" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J44" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K44" s="39" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="183">
-        <v>32</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="E45" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="F45" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G45" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H45" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="I45" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J45" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="K45" s="39" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="183">
-        <v>33</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H46" s="151" t="s">
-        <v>354</v>
-      </c>
-      <c r="I46" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J46" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K46" s="39" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="183">
-        <v>34</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="E47" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F47" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G47" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H47" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I47" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J47" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="K47" s="39" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="183">
-        <v>35</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="F48" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G48" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H48" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J48" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K48" s="39" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="183">
-        <v>36</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="E49" s="166" t="s">
-        <v>221</v>
-      </c>
-      <c r="F49" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G49" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H49" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I49" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J49" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K49" s="39" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="183">
-        <v>37</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="E50" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H50" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="I50" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J50" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="K50" s="94" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="51" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="183">
-        <v>38</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G51" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H51" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I51" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J51" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K51" s="94" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="52" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="183">
-        <v>39</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="F52" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G52" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="H52" s="151" t="s">
-        <v>354</v>
-      </c>
-      <c r="I52" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J52" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K52" s="94" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="183">
-        <v>40</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="E53" s="166" t="s">
-        <v>221</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G53" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I53" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J53" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K53" s="94" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="54" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="183">
-        <v>41</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>455</v>
-      </c>
-      <c r="E54" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H54" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="I54" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J54" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="K54" s="94" t="s">
-        <v>443</v>
-      </c>
-      <c r="L54" s="79"/>
-    </row>
-    <row r="55" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="183">
-        <v>42</v>
-      </c>
-      <c r="D55" s="94" t="s">
-        <v>455</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G55" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="H55" s="151" t="s">
-        <v>354</v>
-      </c>
-      <c r="I55" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J55" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K55" s="94" t="s">
-        <v>444</v>
-      </c>
-      <c r="L55" s="79"/>
-    </row>
-    <row r="56" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="183">
-        <v>43</v>
-      </c>
-      <c r="D56" s="94" t="s">
-        <v>455</v>
-      </c>
-      <c r="E56" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H56" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I56" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J56" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="K56" s="94" t="s">
-        <v>445</v>
-      </c>
-      <c r="L56" s="79"/>
-    </row>
-    <row r="57" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="183">
-        <v>44</v>
-      </c>
-      <c r="D57" s="94" t="s">
-        <v>455</v>
-      </c>
-      <c r="E57" s="166" t="s">
-        <v>221</v>
-      </c>
-      <c r="F57" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G57" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H57" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I57" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J57" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K57" s="94" t="s">
-        <v>446</v>
-      </c>
-      <c r="L57" s="79"/>
-    </row>
-    <row r="58" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="183">
-        <v>45</v>
-      </c>
-      <c r="D58" s="185">
-        <v>44836</v>
-      </c>
-      <c r="E58" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G58" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H58" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I58" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J58" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="K58" s="153" t="s">
-        <v>460</v>
-      </c>
-      <c r="L58" s="79"/>
-    </row>
-    <row r="59" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="183">
-        <v>46</v>
-      </c>
-      <c r="D59" s="185">
-        <v>44836</v>
-      </c>
-      <c r="E59" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="F59" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G59" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H59" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="I59" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J59" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="K59" s="94" t="s">
-        <v>461</v>
-      </c>
-      <c r="L59" s="79"/>
-    </row>
-    <row r="60" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="183">
-        <v>47</v>
-      </c>
-      <c r="D60" s="185">
-        <v>44836</v>
-      </c>
-      <c r="E60" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G60" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H60" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I60" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J60" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K60" s="94" t="s">
-        <v>462</v>
-      </c>
-      <c r="L60" s="79"/>
-    </row>
-    <row r="61" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="183">
-        <v>48</v>
-      </c>
-      <c r="D61" s="185">
-        <v>44836</v>
-      </c>
-      <c r="E61" s="166" t="s">
-        <v>221</v>
-      </c>
-      <c r="F61" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G61" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H61" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I61" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J61" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K61" s="94" t="s">
-        <v>463</v>
-      </c>
-      <c r="L61" s="79"/>
-    </row>
-    <row r="62" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="183">
-        <v>49</v>
-      </c>
-      <c r="D62" s="185" t="s">
-        <v>482</v>
-      </c>
-      <c r="E62" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="F62" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G62" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H62" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="I62" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J62" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="K62" s="39" t="s">
-        <v>491</v>
-      </c>
-      <c r="L62" s="79"/>
-    </row>
-    <row r="63" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="183">
-        <v>50</v>
-      </c>
-      <c r="D63" s="185" t="s">
-        <v>482</v>
-      </c>
-      <c r="E63" s="166" t="s">
-        <v>221</v>
-      </c>
-      <c r="F63" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G63" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H63" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I63" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J63" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K63" s="39" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="64" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="183">
-        <v>51</v>
-      </c>
-      <c r="D64" s="185" t="s">
-        <v>482</v>
-      </c>
-      <c r="E64" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G64" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H64" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I64" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J64" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K64" s="39" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="65" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="183">
-        <v>52</v>
-      </c>
-      <c r="D65" s="185" t="s">
-        <v>482</v>
-      </c>
-      <c r="E65" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F65" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G65" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H65" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I65" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J65" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="K65" s="39" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="66" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="213">
-        <v>53</v>
-      </c>
-      <c r="D66" s="231">
-        <v>44622</v>
-      </c>
-      <c r="E66" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="F66" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G66" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I66" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J66" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K66" s="214" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="67" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="213">
-        <v>54</v>
-      </c>
-      <c r="D67" s="231">
-        <v>44622</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="F67" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G67" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H67" s="151" t="s">
-        <v>354</v>
-      </c>
-      <c r="I67" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J67" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K67" s="214" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="68" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="213">
-        <v>55</v>
-      </c>
-      <c r="D68" s="231">
-        <v>44622</v>
-      </c>
-      <c r="E68" s="166" t="s">
-        <v>221</v>
-      </c>
-      <c r="F68" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G68" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H68" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I68" s="168" t="s">
-        <v>105</v>
-      </c>
-      <c r="J68" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="K68" s="206" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="69" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="213">
-        <v>56</v>
-      </c>
-      <c r="D69" s="231">
-        <v>44624</v>
-      </c>
-      <c r="E69" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="F69" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G69" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H69" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="I69" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J69" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="K69" s="206" t="s">
-        <v>514</v>
-      </c>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-    </row>
-    <row r="70" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C7:K8"/>
-  </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="duplicateValues" dxfId="20" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="duplicateValues" dxfId="19" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="duplicateValues" dxfId="18" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="duplicateValues" dxfId="17" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="duplicateValues" dxfId="16" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="duplicateValues" dxfId="15" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="duplicateValues" dxfId="14" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="duplicateValues" dxfId="13" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="duplicateValues" dxfId="12" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:Y997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -45577,16 +43109,16 @@
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="318" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="300"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="319"/>
+      <c r="J7" s="319"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -45606,14 +43138,14 @@
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="300"/>
-      <c r="G8" s="300"/>
-      <c r="H8" s="300"/>
-      <c r="I8" s="300"/>
-      <c r="J8" s="300"/>
+      <c r="C8" s="318"/>
+      <c r="D8" s="319"/>
+      <c r="E8" s="319"/>
+      <c r="F8" s="319"/>
+      <c r="G8" s="319"/>
+      <c r="H8" s="319"/>
+      <c r="I8" s="319"/>
+      <c r="J8" s="319"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -46602,68 +44134,109 @@
         <v>356</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="49"/>
       <c r="B39" s="49"/>
-      <c r="C39" s="213">
+      <c r="C39" s="265">
         <v>26</v>
       </c>
-      <c r="D39" s="231">
+      <c r="D39" s="266">
         <v>44622</v>
       </c>
-      <c r="E39" s="94" t="s">
+      <c r="E39" s="267" t="s">
         <v>510</v>
       </c>
-      <c r="F39" s="129" t="s">
+      <c r="F39" s="274" t="s">
         <v>126</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G39" s="200" t="s">
         <v>103</v>
       </c>
-      <c r="H39" s="252" t="s">
+      <c r="H39" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I39" s="200" t="s">
         <v>105</v>
       </c>
-      <c r="J39" s="147" t="s">
+      <c r="J39" s="278" t="s">
         <v>106</v>
       </c>
-      <c r="K39" s="206" t="s">
+      <c r="K39" s="268" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="49"/>
       <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="251"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
+      <c r="C40" s="213">
+        <v>27</v>
+      </c>
+      <c r="D40" s="231">
+        <v>44630</v>
+      </c>
+      <c r="E40" s="279" t="s">
+        <v>529</v>
+      </c>
+      <c r="F40" s="274" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="200" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" s="200" t="s">
+        <v>105</v>
+      </c>
+      <c r="J40" s="278" t="s">
+        <v>106</v>
+      </c>
+      <c r="K40" s="206" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="49"/>
       <c r="B41" s="49"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
+      <c r="C41" s="213">
+        <v>28</v>
+      </c>
+      <c r="D41" s="231">
+        <v>44630</v>
+      </c>
+      <c r="E41" s="161" t="s">
+        <v>531</v>
+      </c>
+      <c r="F41" s="274" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="200" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="206"/>
+      <c r="I41" s="200" t="s">
+        <v>105</v>
+      </c>
+      <c r="J41" s="278" t="s">
+        <v>106</v>
+      </c>
+      <c r="K41" s="206" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="49"/>
       <c r="B42" s="49"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="C42" s="213"/>
+      <c r="D42" s="231"/>
+      <c r="E42" s="214"/>
+      <c r="F42" s="214"/>
+      <c r="G42" s="214"/>
+      <c r="H42" s="214"/>
+      <c r="I42" s="214"/>
+      <c r="J42" s="214"/>
+      <c r="K42" s="214"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="49"/>
@@ -47664,22 +45237,2966 @@
     <mergeCell ref="C7:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="E24">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:T825"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="48" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="36.5703125" customWidth="1"/>
+    <col min="12" max="20" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="318" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="319"/>
+      <c r="J7" s="319"/>
+      <c r="K7" s="319"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="318"/>
+      <c r="D8" s="319"/>
+      <c r="E8" s="319"/>
+      <c r="F8" s="319"/>
+      <c r="G8" s="319"/>
+      <c r="H8" s="319"/>
+      <c r="I8" s="319"/>
+      <c r="J8" s="319"/>
+      <c r="K8" s="319"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="316"/>
+      <c r="D11" s="317"/>
+      <c r="E11" s="317"/>
+      <c r="F11" s="317"/>
+      <c r="G11" s="317"/>
+      <c r="H11" s="317"/>
+      <c r="I11" s="317"/>
+      <c r="J11" s="317"/>
+      <c r="K11" s="317"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="164" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="164" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="165" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="165" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="165" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="165" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="188">
+        <v>1</v>
+      </c>
+      <c r="D14" s="131">
+        <v>44508</v>
+      </c>
+      <c r="E14" s="166" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="167" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+    </row>
+    <row r="15" spans="1:20" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="188">
+        <v>2</v>
+      </c>
+      <c r="D15" s="132">
+        <v>44509</v>
+      </c>
+      <c r="E15" s="166" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="168" t="s">
+        <v>217</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+    </row>
+    <row r="16" spans="1:20" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="188">
+        <v>3</v>
+      </c>
+      <c r="D16" s="132">
+        <v>44510</v>
+      </c>
+      <c r="E16" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="I16" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="168" t="s">
+        <v>217</v>
+      </c>
+      <c r="K16" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+    </row>
+    <row r="17" spans="1:20" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="188">
+        <v>4</v>
+      </c>
+      <c r="D17" s="132">
+        <v>44510</v>
+      </c>
+      <c r="E17" s="166" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="168" t="s">
+        <v>217</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+    </row>
+    <row r="18" spans="1:20" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="188">
+        <v>5</v>
+      </c>
+      <c r="D18" s="132">
+        <v>44510</v>
+      </c>
+      <c r="E18" s="166" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="168" t="s">
+        <v>217</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="1:20" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="188">
+        <v>6</v>
+      </c>
+      <c r="D19" s="132">
+        <v>44511</v>
+      </c>
+      <c r="E19" s="166" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="168" t="s">
+        <v>217</v>
+      </c>
+      <c r="K19" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="188">
+        <v>7</v>
+      </c>
+      <c r="D20" s="132">
+        <v>44511</v>
+      </c>
+      <c r="E20" s="166" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="188">
+        <v>8</v>
+      </c>
+      <c r="D21" s="132">
+        <v>44511</v>
+      </c>
+      <c r="E21" s="166" t="s">
+        <v>229</v>
+      </c>
+      <c r="F21" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="188">
+        <v>9</v>
+      </c>
+      <c r="D22" s="132">
+        <v>44512</v>
+      </c>
+      <c r="E22" s="166" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="188">
+        <v>10</v>
+      </c>
+      <c r="D23" s="132">
+        <v>44516</v>
+      </c>
+      <c r="E23" s="166" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="52" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="188">
+        <v>11</v>
+      </c>
+      <c r="D24" s="132">
+        <v>44516</v>
+      </c>
+      <c r="E24" s="166" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" s="52" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="188">
+        <v>12</v>
+      </c>
+      <c r="D25" s="132">
+        <v>44517</v>
+      </c>
+      <c r="E25" s="166" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="188">
+        <v>13</v>
+      </c>
+      <c r="D26" s="132">
+        <v>44518</v>
+      </c>
+      <c r="E26" s="166" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="188">
+        <v>14</v>
+      </c>
+      <c r="D27" s="132">
+        <v>44518</v>
+      </c>
+      <c r="E27" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K27" s="52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="188">
+        <v>15</v>
+      </c>
+      <c r="D28" s="132">
+        <v>44526</v>
+      </c>
+      <c r="E28" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="188">
+        <v>16</v>
+      </c>
+      <c r="D29" s="132">
+        <v>44531</v>
+      </c>
+      <c r="E29" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" s="144" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="188">
+        <v>17</v>
+      </c>
+      <c r="D30" s="124">
+        <v>44451</v>
+      </c>
+      <c r="E30" s="133" t="s">
+        <v>286</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="135" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="135" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" s="40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="188">
+        <v>18</v>
+      </c>
+      <c r="D31" s="182" t="s">
+        <v>300</v>
+      </c>
+      <c r="E31" s="133" t="s">
+        <v>238</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="135" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" s="135" t="s">
+        <v>106</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="198">
+        <v>19</v>
+      </c>
+      <c r="D32" s="199" t="s">
+        <v>325</v>
+      </c>
+      <c r="E32" s="137" t="s">
+        <v>333</v>
+      </c>
+      <c r="F32" s="137" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" s="137" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" s="137" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="188">
+        <v>20</v>
+      </c>
+      <c r="D33" s="182" t="s">
+        <v>325</v>
+      </c>
+      <c r="E33" s="126" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="126" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="188">
+        <v>21</v>
+      </c>
+      <c r="D34" s="182" t="s">
+        <v>325</v>
+      </c>
+      <c r="E34" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="52" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="188">
+        <v>22</v>
+      </c>
+      <c r="D35" s="189" t="s">
+        <v>357</v>
+      </c>
+      <c r="E35" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" s="169" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="188">
+        <v>23</v>
+      </c>
+      <c r="D36" s="189" t="s">
+        <v>357</v>
+      </c>
+      <c r="E36" s="126" t="s">
+        <v>353</v>
+      </c>
+      <c r="F36" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="151" t="s">
+        <v>354</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="158" t="s">
+        <v>106</v>
+      </c>
+      <c r="K36" s="126" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="188">
+        <v>24</v>
+      </c>
+      <c r="D37" s="189" t="s">
+        <v>357</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="K37" s="126" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="79"/>
+      <c r="C38" s="188">
+        <v>25</v>
+      </c>
+      <c r="D38" s="124">
+        <v>44713</v>
+      </c>
+      <c r="E38" s="126" t="s">
+        <v>353</v>
+      </c>
+      <c r="F38" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="151" t="s">
+        <v>354</v>
+      </c>
+      <c r="I38" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J38" s="158" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="126" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="79"/>
+      <c r="C39" s="188">
+        <v>26</v>
+      </c>
+      <c r="D39" s="124">
+        <v>44713</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="K39" s="126" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="79"/>
+      <c r="C40" s="188">
+        <v>27</v>
+      </c>
+      <c r="D40" s="124">
+        <v>44713</v>
+      </c>
+      <c r="E40" s="126" t="s">
+        <v>375</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="H40" s="151" t="s">
+        <v>354</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J40" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="K40" s="126" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="188">
+        <v>28</v>
+      </c>
+      <c r="D41" s="124">
+        <v>44713</v>
+      </c>
+      <c r="E41" s="126" t="s">
+        <v>333</v>
+      </c>
+      <c r="F41" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="126" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="J41" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="K41" s="126" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="183">
+        <v>29</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="F42" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" s="151" t="s">
+        <v>354</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K42" s="39" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="183">
+        <v>30</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J43" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="K43" s="39" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="183">
+        <v>31</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J44" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K44" s="39" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="183">
+        <v>32</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I45" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J45" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45" s="39" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="183">
+        <v>33</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="F46" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="151" t="s">
+        <v>354</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J46" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K46" s="39" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="183">
+        <v>34</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J47" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="K47" s="39" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="183">
+        <v>35</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J48" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K48" s="39" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="183">
+        <v>36</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="E49" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J49" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K49" s="39" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="183">
+        <v>37</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="E50" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H50" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I50" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50" s="94" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="183">
+        <v>38</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J51" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K51" s="94" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="183">
+        <v>39</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="F52" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" s="151" t="s">
+        <v>354</v>
+      </c>
+      <c r="I52" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J52" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K52" s="94" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="183">
+        <v>40</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="E53" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="F53" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J53" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K53" s="94" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="183">
+        <v>41</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H54" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I54" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J54" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="K54" s="94" t="s">
+        <v>443</v>
+      </c>
+      <c r="L54" s="79"/>
+    </row>
+    <row r="55" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="183">
+        <v>42</v>
+      </c>
+      <c r="D55" s="94" t="s">
+        <v>455</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="F55" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="151" t="s">
+        <v>354</v>
+      </c>
+      <c r="I55" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J55" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K55" s="94" t="s">
+        <v>444</v>
+      </c>
+      <c r="L55" s="79"/>
+    </row>
+    <row r="56" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="183">
+        <v>43</v>
+      </c>
+      <c r="D56" s="94" t="s">
+        <v>455</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J56" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="K56" s="94" t="s">
+        <v>445</v>
+      </c>
+      <c r="L56" s="79"/>
+    </row>
+    <row r="57" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="183">
+        <v>44</v>
+      </c>
+      <c r="D57" s="94" t="s">
+        <v>455</v>
+      </c>
+      <c r="E57" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="F57" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I57" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J57" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K57" s="94" t="s">
+        <v>446</v>
+      </c>
+      <c r="L57" s="79"/>
+    </row>
+    <row r="58" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="183">
+        <v>45</v>
+      </c>
+      <c r="D58" s="185">
+        <v>44836</v>
+      </c>
+      <c r="E58" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H58" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J58" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="K58" s="153" t="s">
+        <v>460</v>
+      </c>
+      <c r="L58" s="79"/>
+    </row>
+    <row r="59" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="183">
+        <v>46</v>
+      </c>
+      <c r="D59" s="185">
+        <v>44836</v>
+      </c>
+      <c r="E59" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H59" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I59" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="K59" s="94" t="s">
+        <v>461</v>
+      </c>
+      <c r="L59" s="79"/>
+    </row>
+    <row r="60" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="183">
+        <v>47</v>
+      </c>
+      <c r="D60" s="185">
+        <v>44836</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="F60" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G60" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I60" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J60" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K60" s="94" t="s">
+        <v>462</v>
+      </c>
+      <c r="L60" s="79"/>
+    </row>
+    <row r="61" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="183">
+        <v>48</v>
+      </c>
+      <c r="D61" s="185">
+        <v>44836</v>
+      </c>
+      <c r="E61" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="F61" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H61" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I61" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J61" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K61" s="94" t="s">
+        <v>463</v>
+      </c>
+      <c r="L61" s="79"/>
+    </row>
+    <row r="62" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="183">
+        <v>49</v>
+      </c>
+      <c r="D62" s="185" t="s">
+        <v>482</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H62" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J62" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="K62" s="39" t="s">
+        <v>491</v>
+      </c>
+      <c r="L62" s="79"/>
+    </row>
+    <row r="63" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="183">
+        <v>50</v>
+      </c>
+      <c r="D63" s="185" t="s">
+        <v>482</v>
+      </c>
+      <c r="E63" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="F63" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H63" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J63" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K63" s="39" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="183">
+        <v>51</v>
+      </c>
+      <c r="D64" s="185" t="s">
+        <v>482</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I64" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J64" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K64" s="39" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="183">
+        <v>52</v>
+      </c>
+      <c r="D65" s="185" t="s">
+        <v>482</v>
+      </c>
+      <c r="E65" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H65" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I65" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J65" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="K65" s="39" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="66" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="213">
+        <v>53</v>
+      </c>
+      <c r="D66" s="231">
+        <v>44622</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J66" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K66" s="214" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="213">
+        <v>54</v>
+      </c>
+      <c r="D67" s="231">
+        <v>44622</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H67" s="151" t="s">
+        <v>354</v>
+      </c>
+      <c r="I67" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J67" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K67" s="214" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="68" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="213">
+        <v>55</v>
+      </c>
+      <c r="D68" s="231">
+        <v>44622</v>
+      </c>
+      <c r="E68" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="F68" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I68" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="J68" s="168" t="s">
+        <v>106</v>
+      </c>
+      <c r="K68" s="206" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="69" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="213">
+        <v>56</v>
+      </c>
+      <c r="D69" s="231">
+        <v>44624</v>
+      </c>
+      <c r="E69" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="F69" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J69" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="K69" s="206" t="s">
+        <v>514</v>
+      </c>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+    </row>
+    <row r="70" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="213">
+        <v>57</v>
+      </c>
+      <c r="D70" s="231">
+        <v>44630</v>
+      </c>
+      <c r="E70" s="126" t="s">
+        <v>375</v>
+      </c>
+      <c r="F70" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H70" s="151" t="s">
+        <v>354</v>
+      </c>
+      <c r="I70" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J70" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="K70" s="277" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="71" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="213">
+        <v>58</v>
+      </c>
+      <c r="D71" s="231">
+        <v>44630</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="F71" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H71" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I71" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J71" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="K71" s="206" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="72" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="213">
+        <v>59</v>
+      </c>
+      <c r="D72" s="231">
+        <v>44630</v>
+      </c>
+      <c r="E72" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G72" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H72" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I72" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J72" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="K72" s="263" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="73" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C7:K8"/>
+  </mergeCells>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="duplicateValues" dxfId="16" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="duplicateValues" dxfId="15" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="duplicateValues" dxfId="14" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="duplicateValues" dxfId="13" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="duplicateValues" dxfId="12" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="duplicateValues" dxfId="11" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="duplicateValues" dxfId="10" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="duplicateValues" dxfId="9" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="duplicateValues" dxfId="8" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -47692,9 +48209,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -47891,16 +48408,16 @@
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="217"/>
-      <c r="B8" s="305" t="s">
+      <c r="B8" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="306"/>
-      <c r="D8" s="306"/>
-      <c r="E8" s="306"/>
-      <c r="F8" s="306"/>
-      <c r="G8" s="306"/>
-      <c r="H8" s="306"/>
-      <c r="I8" s="306"/>
+      <c r="C8" s="323"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="323"/>
+      <c r="G8" s="323"/>
+      <c r="H8" s="323"/>
+      <c r="I8" s="323"/>
       <c r="J8" s="217"/>
       <c r="K8" s="217"/>
       <c r="L8" s="217"/>
@@ -47918,14 +48435,14 @@
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="217"/>
-      <c r="B9" s="305"/>
-      <c r="C9" s="306"/>
-      <c r="D9" s="306"/>
-      <c r="E9" s="306"/>
-      <c r="F9" s="306"/>
-      <c r="G9" s="306"/>
-      <c r="H9" s="306"/>
-      <c r="I9" s="306"/>
+      <c r="B9" s="322"/>
+      <c r="C9" s="323"/>
+      <c r="D9" s="323"/>
+      <c r="E9" s="323"/>
+      <c r="F9" s="323"/>
+      <c r="G9" s="323"/>
+      <c r="H9" s="323"/>
+      <c r="I9" s="323"/>
       <c r="J9" s="217"/>
       <c r="K9" s="217"/>
       <c r="L9" s="217"/>
@@ -47993,14 +48510,14 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="217"/>
-      <c r="B12" s="303"/>
-      <c r="C12" s="304"/>
-      <c r="D12" s="304"/>
-      <c r="E12" s="304"/>
-      <c r="F12" s="304"/>
-      <c r="G12" s="304"/>
-      <c r="H12" s="304"/>
-      <c r="I12" s="304"/>
+      <c r="B12" s="320"/>
+      <c r="C12" s="321"/>
+      <c r="D12" s="321"/>
+      <c r="E12" s="321"/>
+      <c r="F12" s="321"/>
+      <c r="G12" s="321"/>
+      <c r="H12" s="321"/>
+      <c r="I12" s="321"/>
       <c r="J12" s="217"/>
       <c r="K12" s="217"/>
       <c r="L12" s="217"/>
@@ -48087,10 +48604,10 @@
       <c r="B15" s="226"/>
       <c r="C15" s="226"/>
       <c r="D15" s="226"/>
-      <c r="E15" s="227"/>
-      <c r="F15" s="227"/>
-      <c r="G15" s="227"/>
-      <c r="H15" s="227"/>
+      <c r="E15" s="226"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="226"/>
       <c r="I15" s="227"/>
       <c r="J15" s="225"/>
       <c r="K15" s="225"/>
@@ -48108,29 +48625,29 @@
       <c r="W15" s="225"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="254"/>
-      <c r="B16" s="255">
+      <c r="A16" s="252"/>
+      <c r="B16" s="253">
         <v>1</v>
       </c>
-      <c r="C16" s="256">
+      <c r="C16" s="254">
         <v>44377</v>
       </c>
-      <c r="D16" s="257" t="s">
+      <c r="D16" s="255" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="257" t="s">
+      <c r="E16" s="255" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="257" t="s">
+      <c r="F16" s="255" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="257" t="s">
+      <c r="G16" s="255" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="257" t="s">
+      <c r="H16" s="255" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="258" t="s">
+      <c r="I16" s="256" t="s">
         <v>145</v>
       </c>
       <c r="J16" s="217"/>
@@ -48149,29 +48666,29 @@
       <c r="W16" s="217"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="254"/>
-      <c r="B17" s="255">
+      <c r="A17" s="252"/>
+      <c r="B17" s="253">
         <v>2</v>
       </c>
-      <c r="C17" s="256">
+      <c r="C17" s="254">
         <v>44378</v>
       </c>
-      <c r="D17" s="257" t="s">
+      <c r="D17" s="255" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="257" t="s">
+      <c r="E17" s="255" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="259" t="s">
+      <c r="F17" s="257" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="257" t="s">
+      <c r="G17" s="255" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="257" t="s">
+      <c r="H17" s="255" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="258" t="s">
+      <c r="I17" s="256" t="s">
         <v>148</v>
       </c>
       <c r="J17" s="217"/>
@@ -48190,29 +48707,29 @@
       <c r="W17" s="217"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="254"/>
-      <c r="B18" s="255">
+      <c r="A18" s="252"/>
+      <c r="B18" s="253">
         <v>3</v>
       </c>
-      <c r="C18" s="256">
+      <c r="C18" s="254">
         <v>44378</v>
       </c>
-      <c r="D18" s="258" t="s">
+      <c r="D18" s="256" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="257" t="s">
+      <c r="E18" s="255" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="257" t="s">
+      <c r="F18" s="255" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="257" t="s">
+      <c r="G18" s="255" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="257" t="s">
+      <c r="H18" s="255" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="257" t="s">
+      <c r="I18" s="255" t="s">
         <v>150</v>
       </c>
       <c r="J18" s="217"/>
@@ -48231,29 +48748,29 @@
       <c r="W18" s="217"/>
     </row>
     <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="254"/>
-      <c r="B19" s="255">
+      <c r="A19" s="252"/>
+      <c r="B19" s="253">
         <v>4</v>
       </c>
-      <c r="C19" s="256">
+      <c r="C19" s="254">
         <v>44384</v>
       </c>
-      <c r="D19" s="260" t="s">
+      <c r="D19" s="258" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="257" t="s">
+      <c r="E19" s="255" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="259" t="s">
+      <c r="F19" s="257" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="260" t="s">
+      <c r="G19" s="258" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="260" t="s">
+      <c r="H19" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="261" t="s">
+      <c r="I19" s="259" t="s">
         <v>152</v>
       </c>
       <c r="J19" s="217"/>
@@ -48263,29 +48780,29 @@
       <c r="N19" s="217"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="254"/>
-      <c r="B20" s="255">
+      <c r="A20" s="252"/>
+      <c r="B20" s="253">
         <v>5</v>
       </c>
-      <c r="C20" s="256">
+      <c r="C20" s="254">
         <v>44384</v>
       </c>
-      <c r="D20" s="260" t="s">
+      <c r="D20" s="258" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="257" t="s">
+      <c r="E20" s="255" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="259" t="s">
+      <c r="F20" s="257" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="260" t="s">
+      <c r="G20" s="258" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="260" t="s">
+      <c r="H20" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="260" t="s">
+      <c r="I20" s="258" t="s">
         <v>153</v>
       </c>
       <c r="J20" s="217"/>
@@ -48295,29 +48812,29 @@
       <c r="N20" s="217"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="254"/>
-      <c r="B21" s="255">
+      <c r="A21" s="252"/>
+      <c r="B21" s="253">
         <v>6</v>
       </c>
-      <c r="C21" s="256">
+      <c r="C21" s="254">
         <v>44384</v>
       </c>
-      <c r="D21" s="260" t="s">
+      <c r="D21" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="257" t="s">
+      <c r="E21" s="255" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="257" t="s">
+      <c r="F21" s="255" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="260" t="s">
+      <c r="G21" s="258" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="260" t="s">
+      <c r="H21" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="258" t="s">
+      <c r="I21" s="256" t="s">
         <v>155</v>
       </c>
       <c r="J21" s="217"/>
@@ -48327,29 +48844,29 @@
       <c r="N21" s="217"/>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="254"/>
-      <c r="B22" s="255">
+      <c r="A22" s="252"/>
+      <c r="B22" s="253">
         <v>7</v>
       </c>
-      <c r="C22" s="256">
+      <c r="C22" s="254">
         <v>44384</v>
       </c>
-      <c r="D22" s="260" t="s">
+      <c r="D22" s="258" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="257" t="s">
+      <c r="E22" s="255" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="257" t="s">
+      <c r="F22" s="255" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="260" t="s">
+      <c r="G22" s="258" t="s">
         <v>105</v>
       </c>
-      <c r="H22" s="260" t="s">
+      <c r="H22" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="258" t="s">
+      <c r="I22" s="256" t="s">
         <v>158</v>
       </c>
       <c r="J22" s="217"/>
@@ -48359,15 +48876,15 @@
       <c r="N22" s="217"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="254"/>
-      <c r="B23" s="254"/>
-      <c r="C23" s="254"/>
-      <c r="D23" s="254"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="254"/>
-      <c r="G23" s="254"/>
-      <c r="H23" s="254"/>
-      <c r="I23" s="254"/>
+      <c r="A23" s="252"/>
+      <c r="B23" s="252"/>
+      <c r="C23" s="252"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="252"/>
+      <c r="F23" s="252"/>
+      <c r="G23" s="252"/>
+      <c r="H23" s="252"/>
+      <c r="I23" s="252"/>
       <c r="J23" s="217"/>
       <c r="K23" s="217"/>
       <c r="L23" s="217"/>
@@ -52841,11 +53358,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I21" r:id="rId1"/>
-    <hyperlink ref="A1:XFD1048576" r:id="rId2" display="Proheat Hydronic Offsite SEO - v2 - onsite offsite report - 14th Feb.- 18th Feb. 2022.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -52869,17 +53385,17 @@
     <row r="5" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G6" s="1"/>
-      <c r="H6" s="282" t="s">
+      <c r="H6" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="283"/>
-      <c r="J6" s="283"/>
+      <c r="I6" s="298"/>
+      <c r="J6" s="298"/>
     </row>
     <row r="7" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G7" s="1"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="286"/>
+      <c r="H7" s="300"/>
+      <c r="I7" s="301"/>
+      <c r="J7" s="301"/>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G8" s="1"/>
@@ -52895,11 +53411,11 @@
     </row>
     <row r="10" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
-      <c r="H10" s="307">
+      <c r="H10" s="324">
         <v>43580</v>
       </c>
-      <c r="I10" s="272"/>
-      <c r="J10" s="272"/>
+      <c r="I10" s="287"/>
+      <c r="J10" s="287"/>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
